--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.3818488366618</v>
+        <v>0.1614856666666667</v>
       </c>
       <c r="H2">
-        <v>11.3818488366618</v>
+        <v>0.484457</v>
       </c>
       <c r="I2">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="J2">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N2">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q2">
-        <v>33.44126223586353</v>
+        <v>1.234556575952778</v>
       </c>
       <c r="R2">
-        <v>33.44126223586353</v>
+        <v>11.111009183575</v>
       </c>
       <c r="S2">
-        <v>0.00271173434917098</v>
+        <v>9.205783640738738E-05</v>
       </c>
       <c r="T2">
-        <v>0.00271173434917098</v>
+        <v>9.205783640738739E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>11.3818488366618</v>
+        <v>0.1614856666666667</v>
       </c>
       <c r="H3">
-        <v>11.3818488366618</v>
+        <v>0.484457</v>
       </c>
       <c r="I3">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="J3">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N3">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q3">
-        <v>426.3896434752676</v>
+        <v>6.054574887306889</v>
       </c>
       <c r="R3">
-        <v>426.3896434752676</v>
+        <v>54.491173985762</v>
       </c>
       <c r="S3">
-        <v>0.03457571171170219</v>
+        <v>0.0004514747038318746</v>
       </c>
       <c r="T3">
-        <v>0.03457571171170219</v>
+        <v>0.0004514747038318747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>11.3818488366618</v>
+        <v>0.1614856666666667</v>
       </c>
       <c r="H4">
-        <v>11.3818488366618</v>
+        <v>0.484457</v>
       </c>
       <c r="I4">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="J4">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N4">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q4">
-        <v>625.6422739668183</v>
+        <v>9.464885070014221</v>
       </c>
       <c r="R4">
-        <v>625.6422739668183</v>
+        <v>85.183965630128</v>
       </c>
       <c r="S4">
-        <v>0.05073300261943453</v>
+        <v>0.0007057731159203033</v>
       </c>
       <c r="T4">
-        <v>0.05073300261943453</v>
+        <v>0.0007057731159203033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>11.3818488366618</v>
+        <v>0.1614856666666667</v>
       </c>
       <c r="H5">
-        <v>11.3818488366618</v>
+        <v>0.484457</v>
       </c>
       <c r="I5">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="J5">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N5">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q5">
-        <v>679.6636894421454</v>
+        <v>9.68470345045111</v>
       </c>
       <c r="R5">
-        <v>679.6636894421454</v>
+        <v>87.16233105406</v>
       </c>
       <c r="S5">
-        <v>0.05511357076013643</v>
+        <v>0.0007221644299351985</v>
       </c>
       <c r="T5">
-        <v>0.05511357076013643</v>
+        <v>0.0007221644299351986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>11.3818488366618</v>
+        <v>0.1614856666666667</v>
       </c>
       <c r="H6">
-        <v>11.3818488366618</v>
+        <v>0.484457</v>
       </c>
       <c r="I6">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="J6">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N6">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q6">
-        <v>129.0027909528903</v>
+        <v>1.899825362749111</v>
       </c>
       <c r="R6">
-        <v>129.0027909528903</v>
+        <v>17.098428264742</v>
       </c>
       <c r="S6">
-        <v>0.01046076840337432</v>
+        <v>0.0001416652876451511</v>
       </c>
       <c r="T6">
-        <v>0.01046076840337432</v>
+        <v>0.0001416652876451511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>11.3818488366618</v>
+        <v>0.1614856666666667</v>
       </c>
       <c r="H7">
-        <v>11.3818488366618</v>
+        <v>0.484457</v>
       </c>
       <c r="I7">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="J7">
-        <v>0.1712728019321252</v>
+        <v>0.002359553325402517</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N7">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q7">
-        <v>218.0062752522527</v>
+        <v>3.304627987471</v>
       </c>
       <c r="R7">
-        <v>218.0062752522527</v>
+        <v>29.741651887239</v>
       </c>
       <c r="S7">
-        <v>0.01767801408830678</v>
+        <v>0.0002464179516626021</v>
       </c>
       <c r="T7">
-        <v>0.01767801408830678</v>
+        <v>0.0002464179516626021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9893354904295</v>
+        <v>11.579347</v>
       </c>
       <c r="H8">
-        <v>18.9893354904295</v>
+        <v>34.738041</v>
       </c>
       <c r="I8">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="J8">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N8">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q8">
-        <v>55.79298731984314</v>
+        <v>88.52401132044166</v>
       </c>
       <c r="R8">
-        <v>55.79298731984314</v>
+        <v>796.7161018839749</v>
       </c>
       <c r="S8">
-        <v>0.00452422396890943</v>
+        <v>0.0066010170056189</v>
       </c>
       <c r="T8">
-        <v>0.00452422396890943</v>
+        <v>0.006601017005618901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9893354904295</v>
+        <v>11.579347</v>
       </c>
       <c r="H9">
-        <v>18.9893354904295</v>
+        <v>34.738041</v>
       </c>
       <c r="I9">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="J9">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N9">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q9">
-        <v>711.3831949266356</v>
+        <v>434.1439398601673</v>
       </c>
       <c r="R9">
-        <v>711.3831949266356</v>
+        <v>3907.295458741506</v>
       </c>
       <c r="S9">
-        <v>0.05768568876077709</v>
+        <v>0.03237304192564978</v>
       </c>
       <c r="T9">
-        <v>0.05768568876077709</v>
+        <v>0.03237304192564978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9893354904295</v>
+        <v>11.579347</v>
       </c>
       <c r="H10">
-        <v>18.9893354904295</v>
+        <v>34.738041</v>
       </c>
       <c r="I10">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="J10">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N10">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q10">
-        <v>1043.813813365982</v>
+        <v>678.6805962602293</v>
       </c>
       <c r="R10">
-        <v>1043.813813365982</v>
+        <v>6108.125366342064</v>
       </c>
       <c r="S10">
-        <v>0.0846423125981204</v>
+        <v>0.05060753676288556</v>
       </c>
       <c r="T10">
-        <v>0.0846423125981204</v>
+        <v>0.05060753676288556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.9893354904295</v>
+        <v>11.579347</v>
       </c>
       <c r="H11">
-        <v>18.9893354904295</v>
+        <v>34.738041</v>
       </c>
       <c r="I11">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="J11">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N11">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q11">
-        <v>1133.942473204143</v>
+        <v>694.4426967400866</v>
       </c>
       <c r="R11">
-        <v>1133.942473204143</v>
+        <v>6249.98427066078</v>
       </c>
       <c r="S11">
-        <v>0.09195079817513255</v>
+        <v>0.05178287768745328</v>
       </c>
       <c r="T11">
-        <v>0.09195079817513255</v>
+        <v>0.05178287768745329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.9893354904295</v>
+        <v>11.579347</v>
       </c>
       <c r="H12">
-        <v>18.9893354904295</v>
+        <v>34.738041</v>
       </c>
       <c r="I12">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="J12">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N12">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q12">
-        <v>215.2266570889241</v>
+        <v>136.2271808313607</v>
       </c>
       <c r="R12">
-        <v>215.2266570889241</v>
+        <v>1226.044627482246</v>
       </c>
       <c r="S12">
-        <v>0.01745261631480425</v>
+        <v>0.01015812460237762</v>
       </c>
       <c r="T12">
-        <v>0.01745261631480425</v>
+        <v>0.01015812460237762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.9893354904295</v>
+        <v>11.579347</v>
       </c>
       <c r="H13">
-        <v>18.9893354904295</v>
+        <v>34.738041</v>
       </c>
       <c r="I13">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="J13">
-        <v>0.2857494193560997</v>
+        <v>0.169192023563534</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N13">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q13">
-        <v>363.718966856189</v>
+        <v>236.958703287423</v>
       </c>
       <c r="R13">
-        <v>363.718966856189</v>
+        <v>2132.628329586807</v>
       </c>
       <c r="S13">
-        <v>0.02949377953835599</v>
+        <v>0.01766942557954884</v>
       </c>
       <c r="T13">
-        <v>0.02949377953835599</v>
+        <v>0.01766942557954884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.0886208584081</v>
+        <v>19.499363</v>
       </c>
       <c r="H14">
-        <v>28.0886208584081</v>
+        <v>58.498089</v>
       </c>
       <c r="I14">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319132</v>
       </c>
       <c r="J14">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319133</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N14">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q14">
-        <v>82.52779925737143</v>
+        <v>149.0724676403083</v>
       </c>
       <c r="R14">
-        <v>82.52779925737143</v>
+        <v>1341.652208762775</v>
       </c>
       <c r="S14">
-        <v>0.006692135794075911</v>
+        <v>0.01111596593156211</v>
       </c>
       <c r="T14">
-        <v>0.006692135794075911</v>
+        <v>0.01111596593156212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.0886208584081</v>
+        <v>19.499363</v>
       </c>
       <c r="H15">
-        <v>28.0886208584081</v>
+        <v>58.498089</v>
       </c>
       <c r="I15">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319132</v>
       </c>
       <c r="J15">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319133</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N15">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q15">
-        <v>1052.262879730993</v>
+        <v>731.0887459874526</v>
       </c>
       <c r="R15">
-        <v>1052.262879730993</v>
+        <v>6579.798713887074</v>
       </c>
       <c r="S15">
-        <v>0.08532744294155145</v>
+        <v>0.05451548312028857</v>
       </c>
       <c r="T15">
-        <v>0.08532744294155145</v>
+        <v>0.05451548312028858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.0886208584081</v>
+        <v>19.499363</v>
       </c>
       <c r="H16">
-        <v>28.0886208584081</v>
+        <v>58.498089</v>
       </c>
       <c r="I16">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319132</v>
       </c>
       <c r="J16">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319133</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N16">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q16">
-        <v>1543.98717454768</v>
+        <v>1142.88304060105</v>
       </c>
       <c r="R16">
-        <v>1543.98717454768</v>
+        <v>10285.94736540946</v>
       </c>
       <c r="S16">
-        <v>0.1252011071343545</v>
+        <v>0.08522196716924973</v>
       </c>
       <c r="T16">
-        <v>0.1252011071343545</v>
+        <v>0.08522196716924975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.0886208584081</v>
+        <v>19.499363</v>
       </c>
       <c r="H17">
-        <v>28.0886208584081</v>
+        <v>58.498089</v>
       </c>
       <c r="I17">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319132</v>
       </c>
       <c r="J17">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319133</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N17">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q17">
-        <v>1677.303569739415</v>
+        <v>1169.426067500513</v>
       </c>
       <c r="R17">
-        <v>1677.303569739415</v>
+        <v>10524.83460750462</v>
       </c>
       <c r="S17">
-        <v>0.1360116634345104</v>
+        <v>0.08720121516457294</v>
       </c>
       <c r="T17">
-        <v>0.1360116634345104</v>
+        <v>0.08720121516457295</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.0886208584081</v>
+        <v>19.499363</v>
       </c>
       <c r="H18">
-        <v>28.0886208584081</v>
+        <v>58.498089</v>
       </c>
       <c r="I18">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319132</v>
       </c>
       <c r="J18">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319133</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N18">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q18">
-        <v>318.3586899415333</v>
+        <v>229.4035449060593</v>
       </c>
       <c r="R18">
-        <v>318.3586899415333</v>
+        <v>2064.631904154534</v>
       </c>
       <c r="S18">
-        <v>0.02581553856378343</v>
+        <v>0.01710605606870506</v>
       </c>
       <c r="T18">
-        <v>0.02581553856378343</v>
+        <v>0.01710605606870507</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.0886208584081</v>
+        <v>19.499363</v>
       </c>
       <c r="H19">
-        <v>28.0886208584081</v>
+        <v>58.498089</v>
       </c>
       <c r="I19">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319132</v>
       </c>
       <c r="J19">
-        <v>0.422674458769184</v>
+        <v>0.2849156074319133</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N19">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O19">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P19">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q19">
-        <v>538.0053538042115</v>
+        <v>399.033189989967</v>
       </c>
       <c r="R19">
-        <v>538.0053538042115</v>
+        <v>3591.298709909703</v>
       </c>
       <c r="S19">
-        <v>0.04362657090090825</v>
+        <v>0.02975491997753484</v>
       </c>
       <c r="T19">
-        <v>0.04362657090090825</v>
+        <v>0.02975491997753484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.88508888756243</v>
+        <v>29.08761866666667</v>
       </c>
       <c r="H20">
-        <v>6.88508888756243</v>
+        <v>87.262856</v>
       </c>
       <c r="I20">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="J20">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N20">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O20">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P20">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q20">
-        <v>20.2292322021151</v>
+        <v>222.3746023098444</v>
       </c>
       <c r="R20">
-        <v>20.2292322021151</v>
+        <v>2001.3714207886</v>
       </c>
       <c r="S20">
-        <v>0.001640377789358725</v>
+        <v>0.01658192517001385</v>
       </c>
       <c r="T20">
-        <v>0.001640377789358725</v>
+        <v>0.01658192517001386</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.88508888756243</v>
+        <v>29.08761866666667</v>
       </c>
       <c r="H21">
-        <v>6.88508888756243</v>
+        <v>87.262856</v>
       </c>
       <c r="I21">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="J21">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N21">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P21">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q21">
-        <v>257.9309072008636</v>
+        <v>1090.580787422366</v>
       </c>
       <c r="R21">
-        <v>257.9309072008636</v>
+        <v>9815.227086801295</v>
       </c>
       <c r="S21">
-        <v>0.02091548147424026</v>
+        <v>0.08132191725606921</v>
       </c>
       <c r="T21">
-        <v>0.02091548147424026</v>
+        <v>0.08132191725606921</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.88508888756243</v>
+        <v>29.08761866666667</v>
       </c>
       <c r="H22">
-        <v>6.88508888756243</v>
+        <v>87.262856</v>
       </c>
       <c r="I22">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="J22">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N22">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O22">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P22">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q22">
-        <v>378.4624738823726</v>
+        <v>1704.863182741092</v>
       </c>
       <c r="R22">
-        <v>378.4624738823726</v>
+        <v>15343.76864466982</v>
       </c>
       <c r="S22">
-        <v>0.03068932276122123</v>
+        <v>0.1271274391395412</v>
       </c>
       <c r="T22">
-        <v>0.03068932276122123</v>
+        <v>0.1271274391395412</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.88508888756243</v>
+        <v>29.08761866666667</v>
       </c>
       <c r="H23">
-        <v>6.88508888756243</v>
+        <v>87.262856</v>
       </c>
       <c r="I23">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="J23">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N23">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O23">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P23">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q23">
-        <v>411.1410178269657</v>
+        <v>1744.457986156498</v>
       </c>
       <c r="R23">
-        <v>411.1410178269657</v>
+        <v>15700.12187540848</v>
       </c>
       <c r="S23">
-        <v>0.03333920868569486</v>
+        <v>0.1300799258917867</v>
       </c>
       <c r="T23">
-        <v>0.03333920868569486</v>
+        <v>0.1300799258917867</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.88508888756243</v>
+        <v>29.08761866666667</v>
       </c>
       <c r="H24">
-        <v>6.88508888756243</v>
+        <v>87.262856</v>
       </c>
       <c r="I24">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="J24">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N24">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O24">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P24">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q24">
-        <v>78.03615170088526</v>
+        <v>342.2061959156818</v>
       </c>
       <c r="R24">
-        <v>78.03615170088526</v>
+        <v>3079.855763241136</v>
       </c>
       <c r="S24">
-        <v>0.006327910458399704</v>
+        <v>0.02551747130494017</v>
       </c>
       <c r="T24">
-        <v>0.006327910458399704</v>
+        <v>0.02551747130494017</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.88508888756243</v>
+        <v>29.08761866666667</v>
       </c>
       <c r="H25">
-        <v>6.88508888756243</v>
+        <v>87.262856</v>
       </c>
       <c r="I25">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="J25">
-        <v>0.1036060557689162</v>
+        <v>0.4250147320792578</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N25">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O25">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P25">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q25">
-        <v>131.8759899818166</v>
+        <v>595.246381421368</v>
       </c>
       <c r="R25">
-        <v>131.8759899818166</v>
+        <v>5357.217432792312</v>
       </c>
       <c r="S25">
-        <v>0.01069375460000144</v>
+        <v>0.04438605331690658</v>
       </c>
       <c r="T25">
-        <v>0.01069375460000144</v>
+        <v>0.04438605331690658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.10960838303965</v>
+        <v>6.911855333333333</v>
       </c>
       <c r="H26">
-        <v>1.10960838303965</v>
+        <v>20.735566</v>
       </c>
       <c r="I26">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="J26">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N26">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O26">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P26">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q26">
-        <v>3.260164973973115</v>
+        <v>52.84107642453888</v>
       </c>
       <c r="R26">
-        <v>3.260164973973115</v>
+        <v>475.5696878208499</v>
       </c>
       <c r="S26">
-        <v>0.0002643650613883212</v>
+        <v>0.003940228632556829</v>
       </c>
       <c r="T26">
-        <v>0.0002643650613883212</v>
+        <v>0.003940228632556829</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.10960838303965</v>
+        <v>6.911855333333333</v>
       </c>
       <c r="H27">
-        <v>1.10960838303965</v>
+        <v>20.735566</v>
       </c>
       <c r="I27">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="J27">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N27">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P27">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q27">
-        <v>41.56842439494288</v>
+        <v>259.1458832831284</v>
       </c>
       <c r="R27">
-        <v>41.56842439494288</v>
+        <v>2332.312949548156</v>
       </c>
       <c r="S27">
-        <v>0.003370761650013201</v>
+        <v>0.01932386882352053</v>
       </c>
       <c r="T27">
-        <v>0.003370761650013201</v>
+        <v>0.01932386882352054</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.10960838303965</v>
+        <v>6.911855333333333</v>
       </c>
       <c r="H28">
-        <v>1.10960838303965</v>
+        <v>20.735566</v>
       </c>
       <c r="I28">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="J28">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N28">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O28">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P28">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q28">
-        <v>60.99342224098446</v>
+        <v>405.112835714407</v>
       </c>
       <c r="R28">
-        <v>60.99342224098446</v>
+        <v>3646.015521429664</v>
       </c>
       <c r="S28">
-        <v>0.004945924498836304</v>
+        <v>0.03020826415180522</v>
       </c>
       <c r="T28">
-        <v>0.004945924498836304</v>
+        <v>0.03020826415180522</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.10960838303965</v>
+        <v>6.911855333333333</v>
       </c>
       <c r="H29">
-        <v>1.10960838303965</v>
+        <v>20.735566</v>
       </c>
       <c r="I29">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="J29">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N29">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O29">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P29">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q29">
-        <v>66.25993178045498</v>
+        <v>414.5214282944755</v>
       </c>
       <c r="R29">
-        <v>66.25993178045498</v>
+        <v>3730.69285465028</v>
       </c>
       <c r="S29">
-        <v>0.005372982984777753</v>
+        <v>0.03090983967570638</v>
       </c>
       <c r="T29">
-        <v>0.005372982984777753</v>
+        <v>0.03090983967570638</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.10960838303965</v>
+        <v>6.911855333333333</v>
       </c>
       <c r="H30">
-        <v>1.10960838303965</v>
+        <v>20.735566</v>
       </c>
       <c r="I30">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="J30">
-        <v>0.01669726417367484</v>
+        <v>0.1009928099075942</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N30">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O30">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P30">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q30">
-        <v>12.57639073678132</v>
+        <v>81.31568786859955</v>
       </c>
       <c r="R30">
-        <v>12.57639073678132</v>
+        <v>731.8411908173961</v>
       </c>
       <c r="S30">
-        <v>0.001019812903860774</v>
+        <v>0.006063510119319186</v>
       </c>
       <c r="T30">
-        <v>0.001019812903860774</v>
+        <v>0.006063510119319187</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.911855333333333</v>
+      </c>
+      <c r="H31">
+        <v>20.735566</v>
+      </c>
+      <c r="I31">
+        <v>0.1009928099075942</v>
+      </c>
+      <c r="J31">
+        <v>0.1009928099075942</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.463909</v>
+      </c>
+      <c r="N31">
+        <v>61.391727</v>
+      </c>
+      <c r="O31">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="P31">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="Q31">
+        <v>141.443578562498</v>
+      </c>
+      <c r="R31">
+        <v>1272.992207062482</v>
+      </c>
+      <c r="S31">
+        <v>0.01054709850468606</v>
+      </c>
+      <c r="T31">
+        <v>0.01054709850468606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.199413666666667</v>
+      </c>
+      <c r="H32">
+        <v>3.598241</v>
+      </c>
+      <c r="I32">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="J32">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.644991666666666</v>
+      </c>
+      <c r="N32">
+        <v>22.934975</v>
+      </c>
+      <c r="O32">
+        <v>0.03901494211481031</v>
+      </c>
+      <c r="P32">
+        <v>0.03901494211481031</v>
+      </c>
+      <c r="Q32">
+        <v>9.169507486552778</v>
+      </c>
+      <c r="R32">
+        <v>82.525567378975</v>
+      </c>
+      <c r="S32">
+        <v>0.0006837475386512199</v>
+      </c>
+      <c r="T32">
+        <v>0.0006837475386512199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.199413666666667</v>
+      </c>
+      <c r="H33">
+        <v>3.598241</v>
+      </c>
+      <c r="I33">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="J33">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.49295533333333</v>
+      </c>
+      <c r="N33">
+        <v>112.478866</v>
+      </c>
+      <c r="O33">
+        <v>0.1913390551386913</v>
+      </c>
+      <c r="P33">
+        <v>0.1913390551386913</v>
+      </c>
+      <c r="Q33">
+        <v>44.9695630305229</v>
+      </c>
+      <c r="R33">
+        <v>404.726067274706</v>
+      </c>
+      <c r="S33">
+        <v>0.00335326930933129</v>
+      </c>
+      <c r="T33">
+        <v>0.00335326930933129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.199413666666667</v>
+      </c>
+      <c r="H34">
+        <v>3.598241</v>
+      </c>
+      <c r="I34">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="J34">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>58.61130133333333</v>
+      </c>
+      <c r="N34">
+        <v>175.833904</v>
+      </c>
+      <c r="O34">
+        <v>0.2991130178420127</v>
+      </c>
+      <c r="P34">
+        <v>0.2991130178420126</v>
+      </c>
+      <c r="Q34">
+        <v>70.29919584031823</v>
+      </c>
+      <c r="R34">
+        <v>632.692762562864</v>
+      </c>
+      <c r="S34">
+        <v>0.005242037502610528</v>
+      </c>
+      <c r="T34">
+        <v>0.005242037502610528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.199413666666667</v>
+      </c>
+      <c r="H35">
+        <v>3.598241</v>
+      </c>
+      <c r="I35">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="J35">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>59.97252666666666</v>
+      </c>
+      <c r="N35">
+        <v>179.91758</v>
+      </c>
+      <c r="O35">
+        <v>0.3060598046929091</v>
+      </c>
+      <c r="P35">
+        <v>0.3060598046929091</v>
+      </c>
+      <c r="Q35">
+        <v>71.93186810853111</v>
+      </c>
+      <c r="R35">
+        <v>647.38681297678</v>
+      </c>
+      <c r="S35">
+        <v>0.005363781843454546</v>
+      </c>
+      <c r="T35">
+        <v>0.005363781843454546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.10960838303965</v>
-      </c>
-      <c r="H31">
-        <v>1.10960838303965</v>
-      </c>
-      <c r="I31">
-        <v>0.01669726417367484</v>
-      </c>
-      <c r="J31">
-        <v>0.01669726417367484</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.1538543852417</v>
-      </c>
-      <c r="N31">
-        <v>19.1538543852417</v>
-      </c>
-      <c r="O31">
-        <v>0.1032155362023709</v>
-      </c>
-      <c r="P31">
-        <v>0.1032155362023709</v>
-      </c>
-      <c r="Q31">
-        <v>21.25327739338495</v>
-      </c>
-      <c r="R31">
-        <v>21.25327739338495</v>
-      </c>
-      <c r="S31">
-        <v>0.001723417074798487</v>
-      </c>
-      <c r="T31">
-        <v>0.001723417074798487</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.199413666666667</v>
+      </c>
+      <c r="H36">
+        <v>3.598241</v>
+      </c>
+      <c r="I36">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="J36">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.76466866666667</v>
+      </c>
+      <c r="N36">
+        <v>35.294006</v>
+      </c>
+      <c r="O36">
+        <v>0.06003902777699859</v>
+      </c>
+      <c r="P36">
+        <v>0.06003902777699859</v>
+      </c>
+      <c r="Q36">
+        <v>14.11070438260511</v>
+      </c>
+      <c r="R36">
+        <v>126.996339443446</v>
+      </c>
+      <c r="S36">
+        <v>0.001052200394011391</v>
+      </c>
+      <c r="T36">
+        <v>0.001052200394011391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.199413666666667</v>
+      </c>
+      <c r="H37">
+        <v>3.598241</v>
+      </c>
+      <c r="I37">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="J37">
+        <v>0.01752527369229814</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>20.463909</v>
+      </c>
+      <c r="N37">
+        <v>61.391727</v>
+      </c>
+      <c r="O37">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="P37">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="Q37">
+        <v>24.54469212802301</v>
+      </c>
+      <c r="R37">
+        <v>220.902229152207</v>
+      </c>
+      <c r="S37">
+        <v>0.001830237104239165</v>
+      </c>
+      <c r="T37">
+        <v>0.001830237104239165</v>
       </c>
     </row>
   </sheetData>
